--- a/tests/Templates/tPivot1.xlsx
+++ b/tests/Templates/tPivot1.xlsx
@@ -106,7 +106,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -150,7 +149,6 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
